--- a/statistics/HistoricalDistanceData/historical_distance/Q30643828-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q30643828-en.xlsx
@@ -31,22 +31,22 @@
     <t>uri</t>
   </si>
   <si>
+    <t>United States presidential election of 1960</t>
+  </si>
+  <si>
     <t>U. S. Electoral College</t>
   </si>
   <si>
-    <t>United States presidential election of 1960</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://www.britannica.com/event/United-States-presidential-election-of-1960</t>
+  </si>
+  <si>
     <t>https://www.archives.gov/federal-register/electoral-college/votes/1953_1957.html#1960</t>
-  </si>
-  <si>
-    <t>https://www.britannica.com/event/United-States-presidential-election-of-1960</t>
   </si>
 </sst>
 </file>
@@ -476,8 +476,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" location="1960"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2" location="1960"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
